--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga6</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.493801368288647</v>
+        <v>1.061304</v>
       </c>
       <c r="H2">
-        <v>0.493801368288647</v>
+        <v>3.183912</v>
       </c>
       <c r="I2">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="J2">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N2">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O2">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P2">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q2">
-        <v>61.06417482429002</v>
+        <v>149.176883518408</v>
       </c>
       <c r="R2">
-        <v>61.06417482429002</v>
+        <v>1342.591951665672</v>
       </c>
       <c r="S2">
-        <v>0.002813117099167768</v>
+        <v>0.006229541216915433</v>
       </c>
       <c r="T2">
-        <v>0.002813117099167768</v>
+        <v>0.006229541216915432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.493801368288647</v>
+        <v>1.061304</v>
       </c>
       <c r="H3">
-        <v>0.493801368288647</v>
+        <v>3.183912</v>
       </c>
       <c r="I3">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="J3">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N3">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O3">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P3">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q3">
-        <v>0.7411308993090548</v>
+        <v>1.767096985064</v>
       </c>
       <c r="R3">
-        <v>0.7411308993090548</v>
+        <v>15.903872865576</v>
       </c>
       <c r="S3">
-        <v>3.41425723276713E-05</v>
+        <v>7.379295801808865E-05</v>
       </c>
       <c r="T3">
-        <v>3.41425723276713E-05</v>
+        <v>7.379295801808865E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.493801368288647</v>
+        <v>1.061304</v>
       </c>
       <c r="H4">
-        <v>0.493801368288647</v>
+        <v>3.183912</v>
       </c>
       <c r="I4">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="J4">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N4">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O4">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P4">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q4">
-        <v>19.04286442283655</v>
+        <v>42.706415891744</v>
       </c>
       <c r="R4">
-        <v>19.04286442283655</v>
+        <v>384.357743025696</v>
       </c>
       <c r="S4">
-        <v>0.0008772706366566034</v>
+        <v>0.001783395468182728</v>
       </c>
       <c r="T4">
-        <v>0.0008772706366566034</v>
+        <v>0.001783395468182728</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.493801368288647</v>
+        <v>1.061304</v>
       </c>
       <c r="H5">
-        <v>0.493801368288647</v>
+        <v>3.183912</v>
       </c>
       <c r="I5">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="J5">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N5">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O5">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P5">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q5">
-        <v>26.31254736199634</v>
+        <v>57.22835986616801</v>
       </c>
       <c r="R5">
-        <v>26.31254736199634</v>
+        <v>515.055238795512</v>
       </c>
       <c r="S5">
-        <v>0.001212171901441137</v>
+        <v>0.002389823531329978</v>
       </c>
       <c r="T5">
-        <v>0.001212171901441137</v>
+        <v>0.002389823531329978</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.493801368288647</v>
+        <v>1.061304</v>
       </c>
       <c r="H6">
-        <v>0.493801368288647</v>
+        <v>3.183912</v>
       </c>
       <c r="I6">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="J6">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N6">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O6">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P6">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q6">
-        <v>10.59775942390148</v>
+        <v>22.997058881328</v>
       </c>
       <c r="R6">
-        <v>10.59775942390148</v>
+        <v>206.973529931952</v>
       </c>
       <c r="S6">
-        <v>0.000488219784088276</v>
+        <v>0.0009603440076651413</v>
       </c>
       <c r="T6">
-        <v>0.000488219784088276</v>
+        <v>0.0009603440076651411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.493801368288647</v>
+        <v>1.061304</v>
       </c>
       <c r="H7">
-        <v>0.493801368288647</v>
+        <v>3.183912</v>
       </c>
       <c r="I7">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="J7">
-        <v>0.005524308035573864</v>
+        <v>0.01165639425243777</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N7">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O7">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P7">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q7">
-        <v>2.157367227623623</v>
+        <v>5.256227987352</v>
       </c>
       <c r="R7">
-        <v>2.157367227623623</v>
+        <v>47.306051886168</v>
       </c>
       <c r="S7">
-        <v>9.938604189240736E-05</v>
+        <v>0.0002194970703264037</v>
       </c>
       <c r="T7">
-        <v>9.938604189240736E-05</v>
+        <v>0.0002194970703264037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>81.6488336538773</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H8">
-        <v>81.6488336538773</v>
+        <v>246.508934</v>
       </c>
       <c r="I8">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="J8">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N8">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O8">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P8">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q8">
-        <v>10096.81011966197</v>
+        <v>11549.76473393892</v>
       </c>
       <c r="R8">
-        <v>10096.81011966197</v>
+        <v>103947.8826054503</v>
       </c>
       <c r="S8">
-        <v>0.4651419474086291</v>
+        <v>0.4823115603354886</v>
       </c>
       <c r="T8">
-        <v>0.4651419474086291</v>
+        <v>0.4823115603354885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>81.6488336538773</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H9">
-        <v>81.6488336538773</v>
+        <v>246.508934</v>
       </c>
       <c r="I9">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="J9">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N9">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O9">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P9">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q9">
-        <v>122.5441592500033</v>
+        <v>136.8144578313536</v>
       </c>
       <c r="R9">
-        <v>122.5441592500033</v>
+        <v>1231.330120482182</v>
       </c>
       <c r="S9">
-        <v>0.005645389801487921</v>
+        <v>0.005713293400617161</v>
       </c>
       <c r="T9">
-        <v>0.005645389801487921</v>
+        <v>0.00571329340061716</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>81.6488336538773</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H10">
-        <v>81.6488336538773</v>
+        <v>246.508934</v>
       </c>
       <c r="I10">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="J10">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N10">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O10">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P10">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q10">
-        <v>3148.690484479702</v>
+        <v>3306.471113659697</v>
       </c>
       <c r="R10">
-        <v>3148.690484479702</v>
+        <v>29758.24002293728</v>
       </c>
       <c r="S10">
-        <v>0.1450545277548451</v>
+        <v>0.1380763399748973</v>
       </c>
       <c r="T10">
-        <v>0.1450545277548451</v>
+        <v>0.1380763399748973</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>81.6488336538773</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H11">
-        <v>81.6488336538773</v>
+        <v>246.508934</v>
       </c>
       <c r="I11">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="J11">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N11">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O11">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P11">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q11">
-        <v>4350.714559611318</v>
+        <v>4430.807756363071</v>
       </c>
       <c r="R11">
-        <v>4350.714559611318</v>
+        <v>39877.26980726764</v>
       </c>
       <c r="S11">
-        <v>0.200429622711815</v>
+        <v>0.1850279942273117</v>
       </c>
       <c r="T11">
-        <v>0.200429622711815</v>
+        <v>0.1850279942273117</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>81.6488336538773</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H12">
-        <v>81.6488336538773</v>
+        <v>246.508934</v>
       </c>
       <c r="I12">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="J12">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N12">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O12">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P12">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q12">
-        <v>1752.313281967544</v>
+        <v>1780.507900334996</v>
       </c>
       <c r="R12">
-        <v>1752.313281967544</v>
+        <v>16024.57110301497</v>
       </c>
       <c r="S12">
-        <v>0.08072593252567548</v>
+        <v>0.07435299015890572</v>
       </c>
       <c r="T12">
-        <v>0.08072593252567548</v>
+        <v>0.0743529901589057</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>81.6488336538773</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H13">
-        <v>81.6488336538773</v>
+        <v>246.508934</v>
       </c>
       <c r="I13">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="J13">
-        <v>0.9134306561615055</v>
+        <v>0.9024763628681201</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N13">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O13">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P13">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q13">
-        <v>356.7153297064232</v>
+        <v>406.9544503815141</v>
       </c>
       <c r="R13">
-        <v>356.7153297064232</v>
+        <v>3662.590053433626</v>
       </c>
       <c r="S13">
-        <v>0.01643323595905276</v>
+        <v>0.0169941847708997</v>
       </c>
       <c r="T13">
-        <v>0.01643323595905276</v>
+        <v>0.0169941847708997</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>7.2443732888851</v>
+        <v>0.005360666666666666</v>
       </c>
       <c r="H14">
-        <v>7.2443732888851</v>
+        <v>0.016082</v>
       </c>
       <c r="I14">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="J14">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N14">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O14">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P14">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q14">
-        <v>895.8494354481262</v>
+        <v>0.7534952727157777</v>
       </c>
       <c r="R14">
-        <v>895.8494354481262</v>
+        <v>6.781457454441999</v>
       </c>
       <c r="S14">
-        <v>0.04127017801174743</v>
+        <v>3.14655310355418E-05</v>
       </c>
       <c r="T14">
-        <v>0.04127017801174743</v>
+        <v>3.14655310355418E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>7.2443732888851</v>
+        <v>0.005360666666666666</v>
       </c>
       <c r="H15">
-        <v>7.2443732888851</v>
+        <v>0.016082</v>
       </c>
       <c r="I15">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="J15">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N15">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O15">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P15">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q15">
-        <v>10.87285138380478</v>
+        <v>0.008925640442888887</v>
       </c>
       <c r="R15">
-        <v>10.87285138380478</v>
+        <v>0.08033076398599999</v>
       </c>
       <c r="S15">
-        <v>0.0005008927776802522</v>
+        <v>3.727296328689052E-07</v>
       </c>
       <c r="T15">
-        <v>0.0005008927776802522</v>
+        <v>3.727296328689051E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>7.2443732888851</v>
+        <v>0.005360666666666666</v>
       </c>
       <c r="H16">
-        <v>7.2443732888851</v>
+        <v>0.016082</v>
       </c>
       <c r="I16">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="J16">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N16">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O16">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P16">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q16">
-        <v>279.3706685073784</v>
+        <v>0.2157109180062222</v>
       </c>
       <c r="R16">
-        <v>279.3706685073784</v>
+        <v>1.941398262056</v>
       </c>
       <c r="S16">
-        <v>0.01287010602936079</v>
+        <v>9.00796439076037E-06</v>
       </c>
       <c r="T16">
-        <v>0.01287010602936079</v>
+        <v>9.007964390760369E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>7.2443732888851</v>
+        <v>0.005360666666666666</v>
       </c>
       <c r="H17">
-        <v>7.2443732888851</v>
+        <v>0.016082</v>
       </c>
       <c r="I17">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="J17">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N17">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O17">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P17">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q17">
-        <v>386.0214400223096</v>
+        <v>0.2890615329091111</v>
       </c>
       <c r="R17">
-        <v>386.0214400223096</v>
+        <v>2.601553796182</v>
       </c>
       <c r="S17">
-        <v>0.0177833159409233</v>
+        <v>1.207104405864506E-05</v>
       </c>
       <c r="T17">
-        <v>0.0177833159409233</v>
+        <v>1.207104405864506E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>7.2443732888851</v>
+        <v>0.005360666666666666</v>
       </c>
       <c r="H18">
-        <v>7.2443732888851</v>
+        <v>0.016082</v>
       </c>
       <c r="I18">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="J18">
-        <v>0.08104503580292068</v>
+        <v>5.887666881738698E-05</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N18">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O18">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P18">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q18">
-        <v>155.4757240924951</v>
+        <v>0.116158581308</v>
       </c>
       <c r="R18">
-        <v>155.4757240924951</v>
+        <v>1.045427231772</v>
       </c>
       <c r="S18">
-        <v>0.007162487976110521</v>
+        <v>4.850715827344098E-06</v>
       </c>
       <c r="T18">
-        <v>0.007162487976110521</v>
+        <v>4.850715827344097E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.005360666666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.016082</v>
+      </c>
+      <c r="I19">
+        <v>5.887666881738698E-05</v>
+      </c>
+      <c r="J19">
+        <v>5.887666881738698E-05</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.952613</v>
+      </c>
+      <c r="N19">
+        <v>14.857839</v>
+      </c>
+      <c r="O19">
+        <v>0.0188306148173136</v>
+      </c>
+      <c r="P19">
+        <v>0.01883061481731359</v>
+      </c>
+      <c r="Q19">
+        <v>0.026549307422</v>
+      </c>
+      <c r="R19">
+        <v>0.238943766798</v>
+      </c>
+      <c r="S19">
+        <v>1.108683872226753E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.108683872226752E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.07278033333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.218341</v>
+      </c>
+      <c r="I20">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="J20">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>140.5599936666667</v>
+      </c>
+      <c r="N20">
+        <v>421.679981</v>
+      </c>
+      <c r="O20">
+        <v>0.5344312385120821</v>
+      </c>
+      <c r="P20">
+        <v>0.534431238512082</v>
+      </c>
+      <c r="Q20">
+        <v>10.23000319239122</v>
+      </c>
+      <c r="R20">
+        <v>92.07002873152101</v>
+      </c>
+      <c r="S20">
+        <v>0.0004271990742340029</v>
+      </c>
+      <c r="T20">
+        <v>0.0004271990742340028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.07278033333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.218341</v>
+      </c>
+      <c r="I21">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="J21">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.665024333333333</v>
+      </c>
+      <c r="N21">
+        <v>4.995073</v>
+      </c>
+      <c r="O21">
+        <v>0.006330684808696814</v>
+      </c>
+      <c r="P21">
+        <v>0.006330684808696813</v>
+      </c>
+      <c r="Q21">
+        <v>0.1211810259881111</v>
+      </c>
+      <c r="R21">
+        <v>1.090629233893</v>
+      </c>
+      <c r="S21">
+        <v>5.06045024065599E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.06045024065599E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.07278033333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.218341</v>
+      </c>
+      <c r="I22">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="J22">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>40.23956933333334</v>
+      </c>
+      <c r="N22">
+        <v>120.718708</v>
+      </c>
+      <c r="O22">
+        <v>0.152997181594965</v>
+      </c>
+      <c r="P22">
+        <v>0.152997181594965</v>
+      </c>
+      <c r="Q22">
+        <v>2.928649269269778</v>
+      </c>
+      <c r="R22">
+        <v>26.357843423428</v>
+      </c>
+      <c r="S22">
+        <v>0.0001222987161449453</v>
+      </c>
+      <c r="T22">
+        <v>0.0001222987161449453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.07278033333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.218341</v>
+      </c>
+      <c r="I23">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="J23">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>53.92268366666667</v>
+      </c>
+      <c r="N23">
+        <v>161.768051</v>
+      </c>
+      <c r="O23">
+        <v>0.2050225378083947</v>
+      </c>
+      <c r="P23">
+        <v>0.2050225378083947</v>
+      </c>
+      <c r="Q23">
+        <v>3.924510891487889</v>
+      </c>
+      <c r="R23">
+        <v>35.32059802339101</v>
+      </c>
+      <c r="S23">
+        <v>0.0001638853271240281</v>
+      </c>
+      <c r="T23">
+        <v>0.0001638853271240281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.07278033333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.218341</v>
+      </c>
+      <c r="I24">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="J24">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>21.668682</v>
+      </c>
+      <c r="N24">
+        <v>65.006046</v>
+      </c>
+      <c r="O24">
+        <v>0.08238774245854792</v>
+      </c>
+      <c r="P24">
+        <v>0.08238774245854791</v>
+      </c>
+      <c r="Q24">
+        <v>1.577053898854</v>
+      </c>
+      <c r="R24">
+        <v>14.193485089686</v>
+      </c>
+      <c r="S24">
+        <v>6.585686758227446E-05</v>
+      </c>
+      <c r="T24">
+        <v>6.585686758227444E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07278033333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.218341</v>
+      </c>
+      <c r="I25">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="J25">
+        <v>0.0007993527388544392</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.952613</v>
+      </c>
+      <c r="N25">
+        <v>14.857839</v>
+      </c>
+      <c r="O25">
+        <v>0.0188306148173136</v>
+      </c>
+      <c r="P25">
+        <v>0.01883061481731359</v>
+      </c>
+      <c r="Q25">
+        <v>0.3604528250110001</v>
+      </c>
+      <c r="R25">
+        <v>3.244075425099</v>
+      </c>
+      <c r="S25">
+        <v>1.505230352853261E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.50523035285326E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.739992666666666</v>
+      </c>
+      <c r="H26">
+        <v>23.219978</v>
+      </c>
+      <c r="I26">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="J26">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>140.5599936666667</v>
+      </c>
+      <c r="N26">
+        <v>421.679981</v>
+      </c>
+      <c r="O26">
+        <v>0.5344312385120821</v>
+      </c>
+      <c r="P26">
+        <v>0.534431238512082</v>
+      </c>
+      <c r="Q26">
+        <v>1087.933320206713</v>
+      </c>
+      <c r="R26">
+        <v>9791.399881860418</v>
+      </c>
+      <c r="S26">
+        <v>0.04543147235440853</v>
+      </c>
+      <c r="T26">
+        <v>0.04543147235440852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.739992666666666</v>
+      </c>
+      <c r="H27">
+        <v>23.219978</v>
+      </c>
+      <c r="I27">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="J27">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.665024333333333</v>
+      </c>
+      <c r="N27">
+        <v>4.995073</v>
+      </c>
+      <c r="O27">
+        <v>0.006330684808696814</v>
+      </c>
+      <c r="P27">
+        <v>0.006330684808696813</v>
+      </c>
+      <c r="Q27">
+        <v>12.88727612982155</v>
+      </c>
+      <c r="R27">
+        <v>115.985485168394</v>
+      </c>
+      <c r="S27">
+        <v>0.0005381652701880398</v>
+      </c>
+      <c r="T27">
+        <v>0.0005381652701880396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7.2443732888851</v>
-      </c>
-      <c r="H19">
-        <v>7.2443732888851</v>
-      </c>
-      <c r="I19">
-        <v>0.08104503580292068</v>
-      </c>
-      <c r="J19">
-        <v>0.08104503580292068</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.3688968199913</v>
-      </c>
-      <c r="N19">
-        <v>4.3688968199913</v>
-      </c>
-      <c r="O19">
-        <v>0.01799067706804354</v>
-      </c>
-      <c r="P19">
-        <v>0.01799067706804354</v>
-      </c>
-      <c r="Q19">
-        <v>31.64991942464003</v>
-      </c>
-      <c r="R19">
-        <v>31.64991942464003</v>
-      </c>
-      <c r="S19">
-        <v>0.001458055067098373</v>
-      </c>
-      <c r="T19">
-        <v>0.001458055067098373</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.739992666666666</v>
+      </c>
+      <c r="H28">
+        <v>23.219978</v>
+      </c>
+      <c r="I28">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="J28">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>40.23956933333334</v>
+      </c>
+      <c r="N28">
+        <v>120.718708</v>
+      </c>
+      <c r="O28">
+        <v>0.152997181594965</v>
+      </c>
+      <c r="P28">
+        <v>0.152997181594965</v>
+      </c>
+      <c r="Q28">
+        <v>311.4539715498249</v>
+      </c>
+      <c r="R28">
+        <v>2803.085743948424</v>
+      </c>
+      <c r="S28">
+        <v>0.01300613947134928</v>
+      </c>
+      <c r="T28">
+        <v>0.01300613947134928</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.739992666666666</v>
+      </c>
+      <c r="H29">
+        <v>23.219978</v>
+      </c>
+      <c r="I29">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="J29">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>53.92268366666667</v>
+      </c>
+      <c r="N29">
+        <v>161.768051</v>
+      </c>
+      <c r="O29">
+        <v>0.2050225378083947</v>
+      </c>
+      <c r="P29">
+        <v>0.2050225378083947</v>
+      </c>
+      <c r="Q29">
+        <v>417.3611761469865</v>
+      </c>
+      <c r="R29">
+        <v>3756.250585322878</v>
+      </c>
+      <c r="S29">
+        <v>0.01742876367857038</v>
+      </c>
+      <c r="T29">
+        <v>0.01742876367857038</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.739992666666666</v>
+      </c>
+      <c r="H30">
+        <v>23.219978</v>
+      </c>
+      <c r="I30">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="J30">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>21.668682</v>
+      </c>
+      <c r="N30">
+        <v>65.006046</v>
+      </c>
+      <c r="O30">
+        <v>0.08238774245854792</v>
+      </c>
+      <c r="P30">
+        <v>0.08238774245854791</v>
+      </c>
+      <c r="Q30">
+        <v>167.715439776332</v>
+      </c>
+      <c r="R30">
+        <v>1509.438957986988</v>
+      </c>
+      <c r="S30">
+        <v>0.007003700708567451</v>
+      </c>
+      <c r="T30">
+        <v>0.00700370070856745</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.739992666666666</v>
+      </c>
+      <c r="H31">
+        <v>23.219978</v>
+      </c>
+      <c r="I31">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="J31">
+        <v>0.08500901347177041</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.952613</v>
+      </c>
+      <c r="N31">
+        <v>14.857839</v>
+      </c>
+      <c r="O31">
+        <v>0.0188306148173136</v>
+      </c>
+      <c r="P31">
+        <v>0.01883061481731359</v>
+      </c>
+      <c r="Q31">
+        <v>38.333188300838</v>
+      </c>
+      <c r="R31">
+        <v>344.998694707542</v>
+      </c>
+      <c r="S31">
+        <v>0.001600771988686731</v>
+      </c>
+      <c r="T31">
+        <v>0.001600771988686731</v>
       </c>
     </row>
   </sheetData>
